--- a/documents/Työajan seuranta.xlsx
+++ b/documents/Työajan seuranta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eino\AALv2023\MobPrjS2023\MobPrjS23materiaali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="834" documentId="13_ncr:1_{80BD340F-9C52-44FA-87A1-639555C66B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B33AE3-936A-4FEB-A242-719D9DF519FA}"/>
+  <xr:revisionPtr revIDLastSave="902" documentId="13_ncr:1_{80BD340F-9C52-44FA-87A1-639555C66B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8FD646C-3298-4860-AEE5-6E716DA2D595}"/>
   <bookViews>
-    <workbookView xWindow="1550" yWindow="1020" windowWidth="15300" windowHeight="9620" firstSheet="3" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
+    <workbookView xWindow="1550" yWindow="1020" windowWidth="15300" windowHeight="9620" activeTab="2" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sara Vehviläinen" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>Ryhmä:</t>
   </si>
@@ -87,54 +87,90 @@
     <t>Github + scrum</t>
   </si>
   <si>
+    <t>1h 30min</t>
+  </si>
+  <si>
     <t>27/8/2025</t>
   </si>
   <si>
     <t>Palaveri</t>
   </si>
   <si>
+    <t>1h</t>
+  </si>
+  <si>
     <t>29/8/2025</t>
   </si>
   <si>
     <t>Käyttöliittymä suunnitelman tekoa</t>
   </si>
   <si>
+    <t>1h 10min</t>
+  </si>
+  <si>
     <t>30/8/2025</t>
   </si>
   <si>
     <t>Palaveri / ryhmä</t>
   </si>
   <si>
+    <t>2h</t>
+  </si>
+  <si>
     <t>31/8/2025</t>
   </si>
   <si>
     <t>Palaveri / opettaja</t>
   </si>
   <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
     <t>Näytösajat/Finnkino haku</t>
   </si>
   <si>
+    <t>4h 30min</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
     <t>Näytösaikojen hienosäätöä</t>
   </si>
   <si>
     <t>15/9/2025</t>
   </si>
   <si>
+    <t>54min</t>
+  </si>
+  <si>
     <t>16/9/2025</t>
   </si>
   <si>
     <t>Suosikkilistan teko</t>
   </si>
   <si>
+    <t>4h</t>
+  </si>
+  <si>
     <t>17/9/2025</t>
   </si>
   <si>
+    <t>3h 20min</t>
+  </si>
+  <si>
     <t>18/9/2025</t>
   </si>
   <si>
     <t>Suosikkilistan hienosäätö</t>
   </si>
   <si>
+    <t>2h 10min</t>
+  </si>
+  <si>
     <t>28/9/2025</t>
   </si>
   <si>
@@ -144,18 +180,33 @@
     <t>29/9/2025</t>
   </si>
   <si>
+    <t>28min</t>
+  </si>
+  <si>
     <t>README:n päivitys</t>
   </si>
   <si>
+    <t>2h 20 min</t>
+  </si>
+  <si>
     <t>README:N hienosäätöä</t>
   </si>
   <si>
+    <t>15min</t>
+  </si>
+  <si>
     <t>Esitykseen liittyvää valmistelua</t>
   </si>
   <si>
+    <t>1h 30 min</t>
+  </si>
+  <si>
     <t>Itse- ja vertaisarviointi</t>
   </si>
   <si>
+    <t xml:space="preserve">45 min </t>
+  </si>
+  <si>
     <t>13/10/2025</t>
   </si>
   <si>
@@ -165,10 +216,16 @@
     <t>Palaveri/ ryhmä</t>
   </si>
   <si>
+    <t>1h 6min</t>
+  </si>
+  <si>
+    <t>3h 15 min</t>
+  </si>
+  <si>
     <t>YHTEENSÄ:</t>
   </si>
   <si>
-    <t>40h 44min</t>
+    <t>47h 28min</t>
   </si>
   <si>
     <t xml:space="preserve">Janika Ahonen </t>
@@ -222,12 +279,6 @@
     <t>reitityshommia</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>1h 30 min</t>
-  </si>
-  <si>
     <t>41 min</t>
   </si>
   <si>
@@ -237,9 +288,6 @@
     <t>1h 50 min</t>
   </si>
   <si>
-    <t>2h 20 min</t>
-  </si>
-  <si>
     <t>ehtojen määrittelyä kirjautuminen/</t>
   </si>
   <si>
@@ -309,9 +357,6 @@
     <t>11/10/</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>12/10/</t>
   </si>
   <si>
@@ -330,6 +375,15 @@
     <t xml:space="preserve">40 min </t>
   </si>
   <si>
+    <t>15/10</t>
+  </si>
+  <si>
+    <t>esitysharjoitukset</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mikhail Konstantinov </t>
   </si>
   <si>
@@ -418,6 +472,12 @@
   </si>
   <si>
     <t>Vertais ja itsearvionti</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>Palaveri, esitysharjoitukset</t>
   </si>
   <si>
     <t>Andreas Kotala</t>
@@ -901,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4D073-EB2D-44A2-86BF-660E3721AF80}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -944,63 +1004,63 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1.5</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1008,10 +1068,10 @@
         <v>45666</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>0.33</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1019,10 +1079,10 @@
         <v>45666</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1030,10 +1090,10 @@
         <v>45756</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.75</v>
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1041,10 +1101,10 @@
         <v>45878</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>0.33</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1052,10 +1112,10 @@
         <v>45878</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.33</v>
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1063,10 +1123,10 @@
         <v>45939</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1074,10 +1134,10 @@
         <v>45970</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1085,98 +1145,98 @@
         <v>46000</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0.33</v>
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>0.57999999999999996</v>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>0.33</v>
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>0.47</v>
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1184,10 +1244,10 @@
         <v>45757</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1195,10 +1255,10 @@
         <v>45787</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>0.25</v>
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1206,10 +1266,10 @@
         <v>45940</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1217,65 +1277,71 @@
         <v>46001</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>0.45</v>
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>0.33</v>
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>0.75</v>
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="15">
-      <c r="C35" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="3:3" ht="15">
+      <c r="C36" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="15">
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCA3CA-2A17-42EC-86E5-CF5FE2A8D439}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1305,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1321,46 +1387,46 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1368,10 +1434,10 @@
         <v>45666</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1379,10 +1445,10 @@
         <v>45756</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1390,10 +1456,10 @@
         <v>45756</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1401,10 +1467,10 @@
         <v>45756</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1412,10 +1478,10 @@
         <v>45786</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1424,10 +1490,10 @@
         <v>45878</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1435,10 +1501,10 @@
         <v>45878</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1446,10 +1512,10 @@
         <v>45909</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1457,10 +1523,10 @@
         <v>45909</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1468,97 +1534,97 @@
         <v>45939</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1566,10 +1632,10 @@
         <v>45818</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1577,10 +1643,10 @@
         <v>45848</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1588,10 +1654,10 @@
         <v>45848</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
@@ -1599,60 +1665,71 @@
         <v>45848</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1662,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1EECD9-4AD3-41AF-8923-B28678799497}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1683,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1702,10 +1779,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>1.5</v>
@@ -1713,10 +1790,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1724,10 +1801,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1738,12 +1815,12 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1751,10 +1828,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1765,7 +1842,7 @@
         <v>45899</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>0.33</v>
@@ -1776,7 +1853,7 @@
         <v>45901</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1787,7 +1864,7 @@
         <v>45697</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1798,7 +1875,7 @@
         <v>45756</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -1809,7 +1886,7 @@
         <v>45786</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1820,7 +1897,7 @@
         <v>45878</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1828,10 +1905,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1839,10 +1916,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1850,10 +1927,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1861,10 +1938,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1872,10 +1949,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1883,10 +1960,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1894,10 +1971,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1905,10 +1982,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1916,10 +1993,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1930,7 +2007,7 @@
         <v>45971</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1941,7 +2018,7 @@
         <v>46001</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1949,13 +2026,24 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C26">
         <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49071EE-549E-4F44-A1ED-C58A2319F867}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2006,7 +2094,7 @@
         <v>45897</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2017,7 +2105,7 @@
         <v>45899</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2028,13 +2116,13 @@
         <v>45899</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2042,7 +2130,7 @@
         <v>45901</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0.33</v>
@@ -2057,7 +2145,7 @@
         <v>45901</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2068,7 +2156,7 @@
         <v>45902</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C8" s="5">
         <v>7.5</v>
@@ -2079,7 +2167,7 @@
         <v>45904</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0.75</v>
@@ -2090,7 +2178,7 @@
         <v>45904</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>0.25</v>
@@ -2101,7 +2189,7 @@
         <v>45905</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5">
         <v>0.25</v>
@@ -2112,7 +2200,7 @@
         <v>45908</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0.33</v>
@@ -2123,7 +2211,7 @@
         <v>45908</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0.33</v>
@@ -2134,7 +2222,7 @@
         <v>45908</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2145,7 +2233,7 @@
         <v>45909</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2156,7 +2244,7 @@
         <v>45909</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -2167,7 +2255,7 @@
         <v>45910</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2178,7 +2266,7 @@
         <v>45910</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2189,7 +2277,7 @@
         <v>45912</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2200,7 +2288,7 @@
         <v>45913</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2">
         <v>1.5</v>
@@ -2211,7 +2299,7 @@
         <v>45914</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -2222,7 +2310,7 @@
         <v>45915</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0.33</v>
@@ -2233,7 +2321,7 @@
         <v>45915</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0.57999999999999996</v>
@@ -2244,7 +2332,7 @@
         <v>45916</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C24">
         <v>4.25</v>
@@ -2255,7 +2343,7 @@
         <v>45919</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C25" s="5">
         <v>3.25</v>
@@ -2266,7 +2354,7 @@
         <v>45921</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2277,7 +2365,7 @@
         <v>45922</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>0.33</v>
@@ -2288,7 +2376,7 @@
         <v>45922</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>0.77</v>
@@ -2299,7 +2387,7 @@
         <v>45923</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>6.5</v>
@@ -2310,7 +2398,7 @@
         <v>45924</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C30" s="8">
         <v>1.5</v>
@@ -2321,7 +2409,7 @@
         <v>45926</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C31">
         <v>4.33</v>
@@ -2332,7 +2420,7 @@
         <v>45929</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2343,7 +2431,7 @@
         <v>45929</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5">
         <v>0.33</v>
@@ -2354,7 +2442,7 @@
         <v>45929</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C34" s="10">
         <v>0.47</v>
@@ -2365,7 +2453,7 @@
         <v>45933</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2376,7 +2464,7 @@
         <v>45939</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C36">
         <v>3.33</v>
@@ -2387,7 +2475,7 @@
         <v>45940</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -2398,7 +2486,7 @@
         <v>45942</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C38">
         <v>1.33</v>
@@ -2409,7 +2497,7 @@
         <v>45943</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39" s="5">
         <v>0.33</v>
@@ -2420,7 +2508,7 @@
         <v>45943</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>0.75</v>
@@ -2432,6 +2520,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba622246-1519-4735-88ae-77e78a7ee9b0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c27c364-8091-450f-ab7c-55d30527af58">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AA9665E62C3294EB24179D4C1B8DE37" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4188143cdb71931727c9d477986c4f4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c27c364-8091-450f-ab7c-55d30527af58" xmlns:ns3="ba622246-1519-4735-88ae-77e78a7ee9b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d401ebcedcfe95f106b393ca57ea065" ns2:_="" ns3:_="">
     <xsd:import namespace="4c27c364-8091-450f-ab7c-55d30527af58"/>
@@ -2620,28 +2728,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba622246-1519-4735-88ae-77e78a7ee9b0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c27c364-8091-450f-ab7c-55d30527af58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E2B4B4-2CEB-4A5E-86AF-68E744B09B09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48257A7D-DF2A-48FB-A95D-A3F28AC1B099}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2649,5 +2737,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48257A7D-DF2A-48FB-A95D-A3F28AC1B099}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E2B4B4-2CEB-4A5E-86AF-68E744B09B09}"/>
 </file>